--- a/exercicios/1.2-exercicio-locadora/Modelagem/Modelagem fisica.xlsx
+++ b/exercicios/1.2-exercicio-locadora/Modelagem/Modelagem fisica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/796e2d2ae89cf7aa/Área de Trabalho/Senai/2T/senai_sprint1_bd/exercicios/1.2-exercicio-locadora/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/796e2d2ae89cf7aa/Área de Trabalho/Senai/2T/senai_sprint1_bd/exercicios/1.2-exercicio-locadora/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D361C20488DEA4E38A0E984996C905BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C1F2E0-074F-4DA1-8B05-2C4761E0533C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D361C20488DEA4E38A0E984996C905BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8EB555-DF8A-4EE2-92F9-FC72DBCB2524}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16284" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>empresa</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>dataLocacao</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -167,11 +170,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,251 +455,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>6548</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
         <v>8954</v>
       </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J6" s="2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
         <v>44228</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>44230</v>
       </c>
     </row>

--- a/exercicios/1.2-exercicio-locadora/Modelagem/Modelagem fisica.xlsx
+++ b/exercicios/1.2-exercicio-locadora/Modelagem/Modelagem fisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/796e2d2ae89cf7aa/Área de Trabalho/Senai/2T/senai_sprint1_bd/exercicios/1.2-exercicio-locadora/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D361C20488DEA4E38A0E984996C905BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8EB555-DF8A-4EE2-92F9-FC72DBCB2524}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D361C20488DEA4E38A0E984996C905BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB81150D-2629-44EB-B39D-10A81FEC5A60}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>empresa</t>
   </si>
@@ -108,10 +108,13 @@
     <t>idAluguel</t>
   </si>
   <si>
-    <t>dataLocacao</t>
-  </si>
-  <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>dataRetirada</t>
+  </si>
+  <si>
+    <t>dataDevolucao</t>
   </si>
 </sst>
 </file>
@@ -168,13 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +462,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,12 +475,12 @@
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -584,6 +588,18 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9564</v>
+      </c>
       <c r="J6" s="1">
         <v>3</v>
       </c>
@@ -609,6 +625,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -633,7 +650,10 @@
         <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -661,6 +681,9 @@
       <c r="K11" s="2">
         <v>44228</v>
       </c>
+      <c r="L11" s="2">
+        <v>44232</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -686,6 +709,9 @@
       </c>
       <c r="K12" s="2">
         <v>44229</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44233</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -706,6 +732,9 @@
       </c>
       <c r="K13" s="2">
         <v>44230</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44234</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +744,7 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
